--- a/Retail_Dashboard_Data.xlsx
+++ b/Retail_Dashboard_Data.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales_by_Region" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly_Sales" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Top_5_Sales_Reps" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Return_Rate_by_Region" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Most_Returned_Products" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -729,33 +729,28 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Central Asia</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>19311.459</v>
+        <v>66928.17</v>
       </c>
       <c r="C23" t="n">
-        <v>-7282.010999999999</v>
+        <v>17817.39</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Western Canada</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr"/>
-      <c r="C24" t="inlineStr"/>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>Eastern Canada</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr"/>
-      <c r="C25" t="inlineStr"/>
+          <t>Central Asia</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>19311.459</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-7282.010999999999</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -768,7 +763,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B50"/>
+  <dimension ref="A1:B49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -789,487 +784,483 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr"/>
-      <c r="B2" t="inlineStr"/>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2012-01</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>98898.48886</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2012-01</t>
+          <t>2012-02</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>98567.97886</v>
+        <v>103717.92328</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2012-02</t>
+          <t>2012-03</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>101875.05328</v>
+        <v>135746.40206</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2012-03</t>
+          <t>2012-04</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>135511.62206</v>
+        <v>114332.96318</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2012-04</t>
+          <t>2012-05</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>114046.88318</v>
+        <v>158228.3288</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2012-05</t>
+          <t>2012-06</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>157476.3188</v>
+        <v>207571.54352</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2012-06</t>
+          <t>2012-07</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>207383.74352</v>
+        <v>118434.88462</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2012-07</t>
+          <t>2012-08</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>116755.87462</v>
+        <v>208063.28372</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2012-08</t>
+          <t>2012-09</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>207698.90372</v>
+        <v>284587.74846</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2012-09</t>
+          <t>2012-10</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>284045.76846</v>
+        <v>216114.56748</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2012-10</t>
+          <t>2012-11</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>215047.94748</v>
+        <v>293947.35216</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2012-11</t>
+          <t>2012-12</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>293050.95216</v>
+        <v>319807.4094</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2012-12</t>
+          <t>2013-01</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>319480.7394</v>
+        <v>137435.97514</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2013-01</t>
+          <t>2013-02</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>137435.97514</v>
+        <v>98854.96208</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2013-02</t>
+          <t>2013-03</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>98328.28208</v>
+        <v>163076.77116</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2013-03</t>
+          <t>2013-04</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>163051.54116</v>
+        <v>161052.26952</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2013-04</t>
+          <t>2013-05</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>159776.09952</v>
+        <v>208364.89124</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2013-05</t>
+          <t>2013-06</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>207013.87124</v>
+        <v>256175.69842</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2013-06</t>
+          <t>2013-07</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>250717.31842</v>
+        <v>145236.78512</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2013-07</t>
+          <t>2013-08</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>143151.69512</v>
+        <v>303142.94238</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2013-08</t>
+          <t>2013-09</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>301532.72238</v>
+        <v>289389.16564</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2013-09</t>
+          <t>2013-10</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>289029.25564</v>
+        <v>252939.8502</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2013-10</t>
+          <t>2013-11</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>252167.3502</v>
+        <v>323512.4169</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2013-11</t>
+          <t>2013-12</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>321224.6469</v>
+        <v>338256.9666</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2013-12</t>
+          <t>2014-01</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>337913.1366</v>
+        <v>199185.90738</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2014-01</t>
+          <t>2014-02</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>196962.12738</v>
+        <v>167239.6504</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2014-02</t>
+          <t>2014-03</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>166892.5204</v>
+        <v>198594.03012</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2014-03</t>
+          <t>2014-04</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>198323.43012</v>
+        <v>177821.31684</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2014-04</t>
+          <t>2014-05</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>177805.83684</v>
+        <v>260498.5647</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2014-05</t>
+          <t>2014-06</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>259678.1547</v>
+        <v>396519.6119</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2014-06</t>
+          <t>2014-07</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>395043.9419</v>
+        <v>229928.952</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2014-07</t>
+          <t>2014-08</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>229314.642</v>
+        <v>326488.78936</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2014-08</t>
+          <t>2014-09</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>320264.23936</v>
+        <v>376619.24568</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2014-09</t>
+          <t>2014-10</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>375966.59568</v>
+        <v>293406.64288</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2014-10</t>
+          <t>2014-11</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>291624.04288</v>
+        <v>373989.3601</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2014-11</t>
+          <t>2014-12</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>371825.0401</v>
+        <v>405454.37802</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2014-12</t>
+          <t>2015-01</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>402884.72802</v>
+        <v>241268.55566</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2015-01</t>
+          <t>2015-02</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>239881.08566</v>
+        <v>184837.35556</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2015-02</t>
+          <t>2015-03</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>181206.45556</v>
+        <v>263100.77262</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2015-03</t>
+          <t>2015-04</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>262496.18262</v>
+        <v>242771.8613</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2015-04</t>
+          <t>2015-05</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>242486.0513</v>
+        <v>288401.04614</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2015-05</t>
+          <t>2015-06</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>288246.21614</v>
+        <v>401814.0631</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2015-06</t>
+          <t>2015-07</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>400847.7631</v>
+        <v>258705.68048</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2015-07</t>
+          <t>2015-08</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>258630.65048</v>
+        <v>456619.94236</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>2015-08</t>
+          <t>2015-09</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>453477.71236</v>
+        <v>481157.2437</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>2015-09</t>
+          <t>2015-10</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>479309.0937</v>
+        <v>422766.62916</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>2015-10</t>
+          <t>2015-11</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>419980.13916</v>
+        <v>555279.027</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>2015-11</t>
+          <t>2015-12</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>552783.8369999999</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>2015-12</t>
-        </is>
-      </c>
-      <c r="B50" t="n">
-        <v>497359.57348</v>
+        <v>503143.69348</v>
       </c>
     </row>
   </sheetData>
@@ -1283,7 +1274,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1294,48 +1285,244 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Category</t>
+          <t>Region</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Total_Profit</t>
+          <t>Return_Rate</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Technology</t>
+          <t>Western US</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>656532.11318</v>
+        <v>0.05526069310021855</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Eastern Asia</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>510638.2978999999</v>
+        <v>0.05518112889637742</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Southern Europe</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>282469.4902</v>
+        <v>0.05300520586843351</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr"/>
-      <c r="B5" t="inlineStr"/>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Southern Africa</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.05230125523012552</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Southern US</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.05123456790123457</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Eastern US</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.04705056179775281</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Southeastern Asia</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.0447427293064877</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>South America</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.04451137884872824</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Western Asia</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.04426229508196721</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Oceania</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.04416403785488959</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Central America</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0.04415954415954416</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Southern Asia</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0.04180790960451977</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Central Asia</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0.04147465437788019</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Western Africa</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0.0410958904109589</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Caribbean</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0.04082840236686391</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>North Africa</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0.03990610328638498</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Western Europe</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0.03960564337922828</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0.0390625</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Northern Europe</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0.03448275862068965</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Central US</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0.03185535944898837</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Eastern Europe</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0.02746893394375409</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Central Africa</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0.02643856920684292</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Eastern Africa</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0.02472527472527472</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1359,113 +1546,113 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Product ID</t>
+          <t>Product Name</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Total_Quantity</t>
+          <t>Return_Count</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>OFF-FA-6129</t>
+          <t>Staples</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>876</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>OFF-BI-3737</t>
+          <t>Smead File Cart, Single Width</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>330</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>OFF-ST-4057</t>
+          <t>Tenex Folders, Single Width</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>321</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>OFF-AR-5923</t>
+          <t>Smead File Cart, Blue</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>258</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>OFF-FA-6189</t>
+          <t>Binney &amp; Smith Sketch Pad, Blue</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>252</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>OFF-BI-3293</t>
+          <t>Rogers Trays, Wire Frame</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>252</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>OFF-BI-4828</t>
+          <t>Rogers File Cart, Single Width</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>251</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>OFF-ST-5693</t>
+          <t>Novimex Executive Leather Armchair, Adjustable</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>250</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>OFF-ST-6033</t>
+          <t>Cardinal Binding Machine, Clear</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>248</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>OFF-AR-6120</t>
+          <t>Cardinal Binder, Recycled</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>234</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
